--- a/BEMFSimulation/ExcelResults/LineVoltage3500.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage3500.xlsx
@@ -408,13 +408,13 @@
         <v>4.761904761904762e-05</v>
       </c>
       <c r="B2">
-        <v>-227.593946028328</v>
+        <v>-229.7364393109619</v>
       </c>
       <c r="C2">
-        <v>472.5481393946827</v>
+        <v>481.5319193924303</v>
       </c>
       <c r="D2">
-        <v>-244.9541933663547</v>
+        <v>-251.7954800814683</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>9.523809523809524e-05</v>
       </c>
       <c r="B3">
-        <v>-205.0067914335683</v>
+        <v>-210.75026666758</v>
       </c>
       <c r="C3">
-        <v>459.1367649841882</v>
+        <v>473.7473824553228</v>
       </c>
       <c r="D3">
-        <v>-254.1299735506199</v>
+        <v>-262.9971157877428</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0001428571428571429</v>
       </c>
       <c r="B4">
-        <v>-158.0348990446142</v>
+        <v>-167.6618277615676</v>
       </c>
       <c r="C4">
-        <v>431.4323335199613</v>
+        <v>449.3143350446758</v>
       </c>
       <c r="D4">
-        <v>-273.397434475347</v>
+        <v>-281.6525072831082</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001904761904761905</v>
       </c>
       <c r="B5">
-        <v>-96.33991293280366</v>
+        <v>-94.48564110840684</v>
       </c>
       <c r="C5">
-        <v>396.8722559578739</v>
+        <v>397.8502122928678</v>
       </c>
       <c r="D5">
-        <v>-300.5323430250702</v>
+        <v>-303.364571184461</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0002380952380952381</v>
       </c>
       <c r="B6">
-        <v>-46.43417320680055</v>
+        <v>-44.77997217289106</v>
       </c>
       <c r="C6">
-        <v>373.6239752066031</v>
+        <v>385.2593183579357</v>
       </c>
       <c r="D6">
-        <v>-327.1898019998026</v>
+        <v>-340.4793461850447</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0002857142857142857</v>
       </c>
       <c r="B7">
-        <v>-20.7062461536014</v>
+        <v>-22.58774530260645</v>
       </c>
       <c r="C7">
-        <v>361.7676885989723</v>
+        <v>374.1264369811468</v>
       </c>
       <c r="D7">
-        <v>-341.0614424453709</v>
+        <v>-351.5386916785403</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0003333333333333334</v>
       </c>
       <c r="B8">
-        <v>-5.643663057427858</v>
+        <v>-8.448413415608329</v>
       </c>
       <c r="C8">
-        <v>363.2869575476903</v>
+        <v>368.7836511063098</v>
       </c>
       <c r="D8">
-        <v>-357.6432944902625</v>
+        <v>-360.3352376907014</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.000380952380952381</v>
       </c>
       <c r="B9">
-        <v>5.362845786088997</v>
+        <v>6.485267411127452</v>
       </c>
       <c r="C9">
-        <v>358.8729368715769</v>
+        <v>362.0178522888572</v>
       </c>
       <c r="D9">
-        <v>-364.2357826576659</v>
+        <v>-368.5031196999847</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0004285714285714287</v>
       </c>
       <c r="B10">
-        <v>20.43054339518814</v>
+        <v>22.93072221778499</v>
       </c>
       <c r="C10">
-        <v>341.994753356994</v>
+        <v>348.8817851349784</v>
       </c>
       <c r="D10">
-        <v>-362.4252967521821</v>
+        <v>-371.8125073527634</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0004761904761904763</v>
       </c>
       <c r="B11">
-        <v>45.82539967687397</v>
+        <v>46.03542886160785</v>
       </c>
       <c r="C11">
-        <v>328.3804017881814</v>
+        <v>344.8003634500577</v>
       </c>
       <c r="D11">
-        <v>-374.2058014650553</v>
+        <v>-390.8357923116656</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0005238095238095239</v>
       </c>
       <c r="B12">
-        <v>95.92910540358218</v>
+        <v>98.68719425855279</v>
       </c>
       <c r="C12">
-        <v>301.5381059196405</v>
+        <v>304.6621459682124</v>
       </c>
       <c r="D12">
-        <v>-397.4672113232227</v>
+        <v>-403.3493402267652</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0005714285714285716</v>
       </c>
       <c r="B13">
-        <v>157.0437704798495</v>
+        <v>163.5490465618347</v>
       </c>
       <c r="C13">
-        <v>274.2401080783172</v>
+        <v>278.0205119322534</v>
       </c>
       <c r="D13">
-        <v>-431.2838785581668</v>
+        <v>-441.5695584940881</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0006190476190476192</v>
       </c>
       <c r="B14">
-        <v>204.50387083947</v>
+        <v>213.2230467302644</v>
       </c>
       <c r="C14">
-        <v>254.118517478166</v>
+        <v>262.8384216092655</v>
       </c>
       <c r="D14">
-        <v>-458.6223883176359</v>
+        <v>-476.0614683395299</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0006666666666666669</v>
       </c>
       <c r="B15">
-        <v>226.947226580645</v>
+        <v>228.1448070339299</v>
       </c>
       <c r="C15">
-        <v>244.2122453980426</v>
+        <v>250.3251023393569</v>
       </c>
       <c r="D15">
-        <v>-471.1594719786876</v>
+        <v>-478.4699093732868</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0007142857142857145</v>
       </c>
       <c r="B16">
-        <v>241.7206749749367</v>
+        <v>244.7160727536769</v>
       </c>
       <c r="C16">
-        <v>241.334601248996</v>
+        <v>245.6870635489353</v>
       </c>
       <c r="D16">
-        <v>-483.0552762239328</v>
+        <v>-490.4031363026122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0007619047619047621</v>
       </c>
       <c r="B17">
-        <v>244.3814208630206</v>
+        <v>250.314936149674</v>
       </c>
       <c r="C17">
-        <v>227.6637284503343</v>
+        <v>229.9288175968786</v>
       </c>
       <c r="D17">
-        <v>-472.0451493133548</v>
+        <v>-480.2437537465526</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0008095238095238098</v>
       </c>
       <c r="B18">
-        <v>253.4222937903637</v>
+        <v>263.0033258802743</v>
       </c>
       <c r="C18">
-        <v>205.1364472140605</v>
+        <v>211.6412652192566</v>
       </c>
       <c r="D18">
-        <v>-458.5587410044242</v>
+        <v>-474.6445910995308</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0008571428571428574</v>
       </c>
       <c r="B19">
-        <v>273.8112909177113</v>
+        <v>282.7870758455022</v>
       </c>
       <c r="C19">
-        <v>158.598696161029</v>
+        <v>167.7908479877405</v>
       </c>
       <c r="D19">
-        <v>-432.4099870787403</v>
+        <v>-450.5779238332427</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0009047619047619051</v>
       </c>
       <c r="B20">
-        <v>301.3883453977123</v>
+        <v>304.3629673488164</v>
       </c>
       <c r="C20">
-        <v>96.42925850318269</v>
+        <v>95.47819423598247</v>
       </c>
       <c r="D20">
-        <v>-397.8176039008951</v>
+        <v>-399.8411615847989</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0009523809523809527</v>
       </c>
       <c r="B21">
-        <v>327.9830035013719</v>
+        <v>341.6974902180451</v>
       </c>
       <c r="C21">
-        <v>46.28378590212066</v>
+        <v>45.6372766838651</v>
       </c>
       <c r="D21">
-        <v>-374.2667894034925</v>
+        <v>-387.3347669019103</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.001</v>
       </c>
       <c r="B22">
-        <v>341.4982851669262</v>
+        <v>351.5878977437631</v>
       </c>
       <c r="C22">
-        <v>20.94877333642289</v>
+        <v>23.03357737271911</v>
       </c>
       <c r="D22">
-        <v>-362.4470585033491</v>
+        <v>-374.6214751164822</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.001047619047619048</v>
       </c>
       <c r="B23">
-        <v>357.7352715472767</v>
+        <v>361.0349621823102</v>
       </c>
       <c r="C23">
-        <v>5.814334411045664</v>
+        <v>7.696577140012337</v>
       </c>
       <c r="D23">
-        <v>-363.5496059583224</v>
+        <v>-368.7315393223225</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.001095238095238096</v>
       </c>
       <c r="B24">
-        <v>363.9975957909937</v>
+        <v>370.2349698209286</v>
       </c>
       <c r="C24">
-        <v>-5.461617021319469</v>
+        <v>-7.429874856726215</v>
       </c>
       <c r="D24">
-        <v>-358.5359787696743</v>
+        <v>-362.8050949642024</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.001142857142857143</v>
       </c>
       <c r="B25">
-        <v>362.9098393149833</v>
+        <v>372.6899192237776</v>
       </c>
       <c r="C25">
-        <v>-20.71871660632925</v>
+        <v>-22.83942391570253</v>
       </c>
       <c r="D25">
-        <v>-342.1911227086541</v>
+        <v>-349.8504953080751</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.001190476190476191</v>
       </c>
       <c r="B26">
-        <v>374.9575601200989</v>
+        <v>389.8269605605437</v>
       </c>
       <c r="C26">
-        <v>-45.90558039591606</v>
+        <v>-44.9451885087967</v>
       </c>
       <c r="D26">
-        <v>-329.0519797241828</v>
+        <v>-344.8817720517471</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.001238095238095238</v>
       </c>
       <c r="B27">
-        <v>398.3460303069185</v>
+        <v>401.6445560105106</v>
       </c>
       <c r="C27">
-        <v>-95.89832852905818</v>
+        <v>-97.12862242657576</v>
       </c>
       <c r="D27">
-        <v>-302.4477017778603</v>
+        <v>-304.5159335839348</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.001285714285714286</v>
       </c>
       <c r="B28">
-        <v>432.797700584117</v>
+        <v>442.24787707118</v>
       </c>
       <c r="C28">
-        <v>-157.5428491165073</v>
+        <v>-163.8333857865335</v>
       </c>
       <c r="D28">
-        <v>-275.2548514676097</v>
+        <v>-278.4144912846465</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.001333333333333334</v>
       </c>
       <c r="B29">
-        <v>459.4656953987404</v>
+        <v>477.9845977547248</v>
       </c>
       <c r="C29">
-        <v>-205.0253193004634</v>
+        <v>-214.0966905051393</v>
       </c>
       <c r="D29">
-        <v>-254.440376098277</v>
+        <v>-263.8879072495855</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.001380952380952381</v>
       </c>
       <c r="B30">
-        <v>471.1566602108185</v>
+        <v>480.113148486398</v>
       </c>
       <c r="C30">
-        <v>-227.218794309616</v>
+        <v>-228.8211557780318</v>
       </c>
       <c r="D30">
-        <v>-243.9378659012025</v>
+        <v>-251.2919927083663</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.001428571428571429</v>
       </c>
       <c r="B31">
-        <v>482.6764269555511</v>
+        <v>489.3728153662684</v>
       </c>
       <c r="C31">
-        <v>-241.6378608250891</v>
+        <v>-244.6326516772025</v>
       </c>
       <c r="D31">
-        <v>-241.038566130462</v>
+        <v>-244.7401636890659</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.001476190476190477</v>
       </c>
       <c r="B32">
-        <v>471.6859720761238</v>
+        <v>477.2677369186245</v>
       </c>
       <c r="C32">
-        <v>-244.3890074583865</v>
+        <v>-249.6253806285302</v>
       </c>
       <c r="D32">
-        <v>-227.2969646177373</v>
+        <v>-227.6423562900943</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.001523809523809524</v>
       </c>
       <c r="B33">
-        <v>458.2981374448333</v>
+        <v>473.2985128050076</v>
       </c>
       <c r="C33">
-        <v>-253.5603151468292</v>
+        <v>-262.5077247859868</v>
       </c>
       <c r="D33">
-        <v>-204.7378222980041</v>
+        <v>-210.7907880190208</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.001571428571428572</v>
       </c>
       <c r="B34">
-        <v>432.0541759734879</v>
+        <v>450.9325115427336</v>
       </c>
       <c r="C34">
-        <v>-273.6749369796525</v>
+        <v>-282.3728623709579</v>
       </c>
       <c r="D34">
-        <v>-158.3792389938355</v>
+        <v>-168.5596491717757</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.00161904761904762</v>
       </c>
       <c r="B35">
-        <v>397.5620654895848</v>
+        <v>398.9283475542781</v>
       </c>
       <c r="C35">
-        <v>-301.1032062050331</v>
+        <v>-303.2532671900585</v>
       </c>
       <c r="D35">
-        <v>-96.45885928455176</v>
+        <v>-95.67508036421965</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B36">
-        <v>374.1714233990253</v>
+        <v>385.5745359903997</v>
       </c>
       <c r="C36">
-        <v>-327.6933146985577</v>
+        <v>-340.6326025398652</v>
       </c>
       <c r="D36">
-        <v>-46.47810870046759</v>
+        <v>-44.94193345053453</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.001714285714285715</v>
       </c>
       <c r="B37">
-        <v>362.5884520636783</v>
+        <v>374.1405568986266</v>
       </c>
       <c r="C37">
-        <v>-341.7231705309152</v>
+        <v>-351.9094429639041</v>
       </c>
       <c r="D37">
-        <v>-20.86528153276306</v>
+        <v>-22.23111393472256</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.001761904761904762</v>
       </c>
       <c r="B38">
-        <v>363.6512798547993</v>
+        <v>368.7222590281455</v>
       </c>
       <c r="C38">
-        <v>-357.977181905331</v>
+        <v>-360.7467106963484</v>
       </c>
       <c r="D38">
-        <v>-5.674097949468361</v>
+        <v>-7.975548331797128</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.00180952380952381</v>
       </c>
       <c r="B39">
-        <v>359.0041499142375</v>
+        <v>362.869138528845</v>
       </c>
       <c r="C39">
-        <v>-364.6156544670919</v>
+        <v>-369.5882291854889</v>
       </c>
       <c r="D39">
-        <v>5.611504552854413</v>
+        <v>6.7190906566439</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.001857142857142858</v>
       </c>
       <c r="B40">
-        <v>341.7480658545601</v>
+        <v>349.5961113983547</v>
       </c>
       <c r="C40">
-        <v>-362.3993805285462</v>
+        <v>-372.2472763390062</v>
       </c>
       <c r="D40">
-        <v>20.65131467398606</v>
+        <v>22.65116494065148</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001904761904761905</v>
       </c>
       <c r="B41">
-        <v>328.5308459191017</v>
+        <v>345.9631814565127</v>
       </c>
       <c r="C41">
-        <v>-374.3664342738202</v>
+        <v>-391.4949314379538</v>
       </c>
       <c r="D41">
-        <v>45.83558835471854</v>
+        <v>45.53174998144117</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.001952380952380953</v>
       </c>
       <c r="B42">
-        <v>301.9795344347033</v>
+        <v>304.7084615255508</v>
       </c>
       <c r="C42">
-        <v>-397.796322100325</v>
+        <v>-403.1069209299145</v>
       </c>
       <c r="D42">
-        <v>95.81678766562169</v>
+        <v>98.39845940436373</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.002</v>
       </c>
       <c r="B43">
-        <v>274.5930542250111</v>
+        <v>278.4992235956698</v>
       </c>
       <c r="C43">
-        <v>-431.948609237161</v>
+        <v>-442.9280240408015</v>
       </c>
       <c r="D43">
-        <v>157.35555501215</v>
+        <v>164.4288004451317</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.002047619047619048</v>
       </c>
       <c r="B44">
-        <v>254.3559873372758</v>
+        <v>263.7495027934617</v>
       </c>
       <c r="C44">
-        <v>-459.41759174203</v>
+        <v>-477.7268671252207</v>
       </c>
       <c r="D44">
-        <v>205.0616044047542</v>
+        <v>213.977364331759</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.002095238095238096</v>
       </c>
       <c r="B45">
-        <v>244.4752300976419</v>
+        <v>250.1235992918407</v>
       </c>
       <c r="C45">
-        <v>-472.10676599031</v>
+        <v>-477.5976603753882</v>
       </c>
       <c r="D45">
-        <v>227.6315358926681</v>
+        <v>227.4740610835475</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.002142857142857143</v>
       </c>
       <c r="B46">
-        <v>241.7473301157781</v>
+        <v>246.4022790522371</v>
       </c>
       <c r="C46">
-        <v>-484.0839581080996</v>
+        <v>-492.3951789393531</v>
       </c>
       <c r="D46">
-        <v>242.3366279923215</v>
+        <v>245.9928998871159</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.002190476190476191</v>
       </c>
       <c r="B47">
-        <v>227.5631617631059</v>
+        <v>229.7112419102309</v>
       </c>
       <c r="C47">
-        <v>-472.5201399358514</v>
+        <v>-481.5165625414285</v>
       </c>
       <c r="D47">
-        <v>244.9569781727455</v>
+        <v>251.8053206311976</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.002238095238095239</v>
       </c>
       <c r="B48">
-        <v>204.9671677782364</v>
+        <v>210.72239131596</v>
       </c>
       <c r="C48">
-        <v>-459.1205901310968</v>
+        <v>-473.7470004292176</v>
       </c>
       <c r="D48">
-        <v>254.1534223528604</v>
+        <v>263.0246091132576</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.002285714285714286</v>
       </c>
       <c r="B49">
-        <v>157.9438794959589</v>
+        <v>167.5531175404209</v>
       </c>
       <c r="C49">
-        <v>-431.376428765874</v>
+        <v>-449.2284790833903</v>
       </c>
       <c r="D49">
-        <v>273.4325492699152</v>
+        <v>281.6753615429694</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B50">
-        <v>96.25735881082564</v>
+        <v>94.39882527554809</v>
       </c>
       <c r="C50">
-        <v>-396.8291690401553</v>
+        <v>-397.8116970319087</v>
       </c>
       <c r="D50">
-        <v>300.5718102293297</v>
+        <v>303.4128717563606</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.002380952380952382</v>
       </c>
       <c r="B51">
-        <v>46.37910036556755</v>
+        <v>44.72636418368107</v>
       </c>
       <c r="C51">
-        <v>-373.6010711773081</v>
+        <v>-385.2486435738625</v>
       </c>
       <c r="D51">
-        <v>327.2219708117406</v>
+        <v>340.5222793901814</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.002428571428571429</v>
       </c>
       <c r="B52">
-        <v>20.68069458944613</v>
+        <v>22.56955942762959</v>
       </c>
       <c r="C52">
-        <v>-361.7584631547953</v>
+        <v>-374.1058639595203</v>
       </c>
       <c r="D52">
-        <v>341.0777685653491</v>
+        <v>351.5363045318907</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.002476190476190477</v>
       </c>
       <c r="B53">
-        <v>5.62619034347675</v>
+        <v>8.428501577939457</v>
       </c>
       <c r="C53">
-        <v>-363.2938761875195</v>
+        <v>-368.7892212942431</v>
       </c>
       <c r="D53">
-        <v>357.6676858440427</v>
+        <v>360.3607197163036</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.002523809523809525</v>
       </c>
       <c r="B54">
-        <v>-5.379987497916318</v>
+        <v>-6.508051360845784</v>
       </c>
       <c r="C54">
-        <v>-358.8518915406885</v>
+        <v>-361.9946819217847</v>
       </c>
       <c r="D54">
-        <v>364.2318790386048</v>
+        <v>368.5027332826305</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.002571428571428572</v>
       </c>
       <c r="B55">
-        <v>-20.45645944783654</v>
+        <v>-22.95908029689222</v>
       </c>
       <c r="C55">
-        <v>-341.9769232162975</v>
+        <v>-348.8666091231452</v>
       </c>
       <c r="D55">
-        <v>362.433382664134</v>
+        <v>371.8256894200374</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.00261904761904762</v>
       </c>
       <c r="B56">
-        <v>-45.8795025997817</v>
+        <v>-46.08560512774021</v>
       </c>
       <c r="C56">
-        <v>-328.3472882368413</v>
+        <v>-344.7773663443018</v>
       </c>
       <c r="D56">
-        <v>374.226790836623</v>
+        <v>390.862971472042</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.002666666666666667</v>
       </c>
       <c r="B57">
-        <v>-96.01190787048363</v>
+        <v>-98.77249281384897</v>
       </c>
       <c r="C57">
-        <v>-301.4995462145247</v>
+        <v>-304.601370112569</v>
       </c>
       <c r="D57">
-        <v>397.5114540850083</v>
+        <v>403.373862926418</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.002714285714285715</v>
       </c>
       <c r="B58">
-        <v>-157.1337752668196</v>
+        <v>-163.6455119773939</v>
       </c>
       <c r="C58">
-        <v>-274.2026183252186</v>
+        <v>-277.9958114373483</v>
       </c>
       <c r="D58">
-        <v>431.3363935920382</v>
+        <v>441.6413234147421</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.002761904761904763</v>
       </c>
       <c r="B59">
-        <v>-204.5467444325809</v>
+        <v>-213.2605780537918</v>
       </c>
       <c r="C59">
-        <v>-254.0977793738773</v>
+        <v>-262.8176528855456</v>
       </c>
       <c r="D59">
-        <v>458.6445238064582</v>
+        <v>476.0782309393373</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.00280952380952381</v>
       </c>
       <c r="B60">
-        <v>-226.9748819575277</v>
+        <v>-228.1683706997815</v>
       </c>
       <c r="C60">
-        <v>-244.2044411177296</v>
+        <v>-250.3136859729127</v>
       </c>
       <c r="D60">
-        <v>471.1793230752573</v>
+        <v>478.4820566726942</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.002857142857142858</v>
       </c>
       <c r="B61">
-        <v>-241.7308778324958</v>
+        <v>-244.7313841827844</v>
       </c>
       <c r="C61">
-        <v>-241.326625284672</v>
+        <v>-245.6738059071509</v>
       </c>
       <c r="D61">
-        <v>483.0575031171678</v>
+        <v>490.4051900899353</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.002904761904761906</v>
       </c>
       <c r="B62">
-        <v>-244.3866941801435</v>
+        <v>-250.3236843459033</v>
       </c>
       <c r="C62">
-        <v>-227.6356234143728</v>
+        <v>-229.9037569704356</v>
       </c>
       <c r="D62">
-        <v>472.0223175945163</v>
+        <v>480.227441316339</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.002952380952380953</v>
       </c>
       <c r="B63">
-        <v>-253.4438016706878</v>
+        <v>-263.0347549996661</v>
       </c>
       <c r="C63">
-        <v>-205.0950880801338</v>
+        <v>-211.6146060686378</v>
       </c>
       <c r="D63">
-        <v>458.5388897508217</v>
+        <v>474.6493610683039</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.003000000000000001</v>
       </c>
       <c r="B64">
-        <v>-273.8492824112057</v>
+        <v>-282.810157826665</v>
       </c>
       <c r="C64">
-        <v>-158.5086614233383</v>
+        <v>-167.6811227793495</v>
       </c>
       <c r="D64">
-        <v>432.357943834544</v>
+        <v>450.4912806060144</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.003047619047619049</v>
       </c>
       <c r="B65">
-        <v>-301.4279970304024</v>
+        <v>-304.4110494312209</v>
       </c>
       <c r="C65">
-        <v>-96.34519615302963</v>
+        <v>-95.39160999077728</v>
       </c>
       <c r="D65">
-        <v>397.7731931834321</v>
+        <v>399.8026594219982</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.003095238095238096</v>
       </c>
       <c r="B66">
-        <v>-328.0132547014935</v>
+        <v>-341.7415433198307</v>
       </c>
       <c r="C66">
-        <v>-46.22924587874667</v>
+        <v>-45.58457486912984</v>
       </c>
       <c r="D66">
-        <v>374.2425005802401</v>
+        <v>387.3261181889605</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.003142857142857144</v>
       </c>
       <c r="B67">
-        <v>-341.5162415229694</v>
+        <v>-351.5861919419596</v>
       </c>
       <c r="C67">
-        <v>-20.92339778869915</v>
+        <v>-23.0133017320039</v>
       </c>
       <c r="D67">
-        <v>362.4396393116685</v>
+        <v>374.5994936739635</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.003190476190476191</v>
       </c>
       <c r="B68">
-        <v>-357.7581082939103</v>
+        <v>-361.0590959337541</v>
       </c>
       <c r="C68">
-        <v>-5.796472610638091</v>
+        <v>-7.675960879472569</v>
       </c>
       <c r="D68">
-        <v>363.5545809045484</v>
+        <v>368.7350568132266</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.003238095238095239</v>
       </c>
       <c r="B69">
-        <v>-363.9941789345607</v>
+        <v>-370.2346078242243</v>
       </c>
       <c r="C69">
-        <v>5.479075121431109</v>
+        <v>7.452284047660413</v>
       </c>
       <c r="D69">
-        <v>358.5151038131296</v>
+        <v>362.7823237765639</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.003285714285714287</v>
       </c>
       <c r="B70">
-        <v>-362.9178885043662</v>
+        <v>-372.7012342809512</v>
       </c>
       <c r="C70">
-        <v>20.7449187640259</v>
+        <v>22.86573875145277</v>
       </c>
       <c r="D70">
-        <v>342.1729697403403</v>
+        <v>349.8354955294984</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.003333333333333334</v>
       </c>
       <c r="B71">
-        <v>-374.9792748016364</v>
+        <v>-389.8537953268594</v>
       </c>
       <c r="C71">
-        <v>45.95919381706759</v>
+        <v>44.99425387279612</v>
       </c>
       <c r="D71">
-        <v>329.0200809845688</v>
+        <v>344.8595414540633</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.003380952380952382</v>
       </c>
       <c r="B72">
-        <v>-398.3908113649649</v>
+        <v>-401.6668395442064</v>
       </c>
       <c r="C72">
-        <v>95.98166938041061</v>
+        <v>97.21436886456866</v>
       </c>
       <c r="D72">
-        <v>302.4091419845543</v>
+        <v>304.4524706796377</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.00342857142857143</v>
       </c>
       <c r="B73">
-        <v>-432.8518492784781</v>
+        <v>-442.3242790931014</v>
       </c>
       <c r="C73">
-        <v>157.6334182583178</v>
+        <v>163.9325927862628</v>
       </c>
       <c r="D73">
-        <v>275.2184310201603</v>
+        <v>278.3916863068386</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.003476190476190477</v>
       </c>
       <c r="B74">
-        <v>-459.4814592943377</v>
+        <v>-478.001559699356</v>
       </c>
       <c r="C74">
-        <v>205.0662243720573</v>
+        <v>214.1340986346263</v>
       </c>
       <c r="D74">
-        <v>254.4152349222804</v>
+        <v>263.8674610647297</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.003523809523809525</v>
       </c>
       <c r="B75">
-        <v>-471.181538177724</v>
+        <v>-480.1220612365647</v>
       </c>
       <c r="C75">
-        <v>227.2486994487444</v>
+        <v>228.8433913639134</v>
       </c>
       <c r="D75">
-        <v>243.9328387289796</v>
+        <v>251.2786698726513</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.003571428571428573</v>
       </c>
       <c r="B76">
-        <v>-482.6772885976924</v>
+        <v>-489.3737095048691</v>
       </c>
       <c r="C76">
-        <v>241.6475174095059</v>
+        <v>244.6481061618777</v>
       </c>
       <c r="D76">
-        <v>241.0297711881865</v>
+        <v>244.7256033429914</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.00361904761904762</v>
       </c>
       <c r="B77">
-        <v>-471.6587807271226</v>
+        <v>-477.2500869121496</v>
       </c>
       <c r="C77">
-        <v>244.3918033471174</v>
+        <v>249.6338087412822</v>
       </c>
       <c r="D77">
-        <v>227.2669773800051</v>
+        <v>227.6162781708674</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.003666666666666668</v>
       </c>
       <c r="B78">
-        <v>-458.2829417915786</v>
+        <v>-473.3027444445856</v>
       </c>
       <c r="C78">
-        <v>253.5843825701968</v>
+        <v>262.5364097572604</v>
       </c>
       <c r="D78">
-        <v>204.6985592213818</v>
+        <v>210.7663346873253</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.003714285714285716</v>
       </c>
       <c r="B79">
-        <v>-432.0005808967572</v>
+        <v>-450.8511080830497</v>
       </c>
       <c r="C79">
-        <v>273.7119443212301</v>
+        <v>282.3982606842626</v>
       </c>
       <c r="D79">
-        <v>158.2886365755271</v>
+        <v>168.4528473987871</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.003761904761904763</v>
       </c>
       <c r="B80">
-        <v>-397.5185756162324</v>
+        <v>-398.886117346111</v>
       </c>
       <c r="C80">
-        <v>301.1426280074128</v>
+        <v>303.3003564657247</v>
       </c>
       <c r="D80">
-        <v>96.37594760881957</v>
+        <v>95.58576088038626</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.003809523809523811</v>
       </c>
       <c r="B81">
-        <v>-374.145474183694</v>
+        <v>-385.567629624199</v>
       </c>
       <c r="C81">
-        <v>327.7227772778363</v>
+        <v>340.6793692880908</v>
       </c>
       <c r="D81">
-        <v>46.42269690585772</v>
+        <v>44.88826033610816</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.003857142857142858</v>
       </c>
       <c r="B82">
-        <v>-362.5807388591583</v>
+        <v>-374.117151511879</v>
       </c>
       <c r="C82">
-        <v>341.7406191831155</v>
+        <v>351.9055889239446</v>
       </c>
       <c r="D82">
-        <v>20.84011967604272</v>
+        <v>22.21156258793441</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.003904761904761906</v>
       </c>
       <c r="B83">
-        <v>-363.6550284758165</v>
+        <v>-368.7281481209421</v>
       </c>
       <c r="C83">
-        <v>357.9987472445837</v>
+        <v>360.7716622416279</v>
       </c>
       <c r="D83">
-        <v>5.656281231232768</v>
+        <v>7.956485879314229</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.003952380952380954</v>
       </c>
       <c r="B84">
-        <v>-358.9831804503673</v>
+        <v>-362.8455146129708</v>
       </c>
       <c r="C84">
-        <v>364.6120818067508</v>
+        <v>369.5868476059023</v>
       </c>
       <c r="D84">
-        <v>-5.628901356383508</v>
+        <v>-6.741332992931532</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.004000000000000001</v>
       </c>
       <c r="B85">
-        <v>-341.73152370696</v>
+        <v>-349.5821743680719</v>
       </c>
       <c r="C85">
-        <v>362.4086270899961</v>
+        <v>372.2609752073233</v>
       </c>
       <c r="D85">
-        <v>-20.67710338303613</v>
+        <v>-22.67880083925139</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.004047619047619048</v>
       </c>
       <c r="B86">
-        <v>-328.5004564129378</v>
+        <v>-345.9404511602831</v>
       </c>
       <c r="C86">
-        <v>374.3905232843259</v>
+        <v>391.5219465983268</v>
       </c>
       <c r="D86">
-        <v>-45.89006687138813</v>
+        <v>-45.58149543804373</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.004095238095238095</v>
       </c>
       <c r="B87">
-        <v>-301.9391880891265</v>
+        <v>-304.6467720365231</v>
       </c>
       <c r="C87">
-        <v>397.8389518200232</v>
+        <v>403.1325792226669</v>
       </c>
       <c r="D87">
-        <v>-95.89976373089674</v>
+        <v>-98.48580718614373</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.004142857142857143</v>
       </c>
       <c r="B88">
-        <v>-274.5572327375307</v>
+        <v>-278.4751809058776</v>
       </c>
       <c r="C88">
-        <v>432.0030045781991</v>
+        <v>443.0015073541183</v>
       </c>
       <c r="D88">
-        <v>-157.4457718406684</v>
+        <v>-164.5263264482407</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.00419047619047619</v>
       </c>
       <c r="B89">
-        <v>-254.3327818131694</v>
+        <v>-263.7272539225115</v>
       </c>
       <c r="C89">
-        <v>459.4364288692458</v>
+        <v>477.739656872996</v>
       </c>
       <c r="D89">
-        <v>-205.1036470560765</v>
+        <v>-214.0124029504845</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.004238095238095237</v>
       </c>
       <c r="B90">
-        <v>-244.4693045998737</v>
+        <v>-250.1127999545031</v>
       </c>
       <c r="C90">
-        <v>472.129758638076</v>
+        <v>477.6112444854462</v>
       </c>
       <c r="D90">
-        <v>-227.6604540382023</v>
+        <v>-227.4984445309431</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/LineVoltage3500.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage3500.xlsx
@@ -408,13 +408,13 @@
         <v>4.761904761904762e-05</v>
       </c>
       <c r="B2">
-        <v>-229.7364393109619</v>
+        <v>-233.0792563368657</v>
       </c>
       <c r="C2">
-        <v>481.5319193924303</v>
+        <v>484.2108278960793</v>
       </c>
       <c r="D2">
-        <v>-251.7954800814683</v>
+        <v>-251.1315715592137</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>9.523809523809524e-05</v>
       </c>
       <c r="B3">
-        <v>-210.75026666758</v>
+        <v>-210.2883204447737</v>
       </c>
       <c r="C3">
-        <v>473.7473824553228</v>
+        <v>471.1430275038231</v>
       </c>
       <c r="D3">
-        <v>-262.9971157877428</v>
+        <v>-260.8547070590494</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0001428571428571429</v>
       </c>
       <c r="B4">
-        <v>-167.6618277615676</v>
+        <v>-162.2020783440706</v>
       </c>
       <c r="C4">
-        <v>449.3143350446758</v>
+        <v>442.9560339665511</v>
       </c>
       <c r="D4">
-        <v>-281.6525072831082</v>
+        <v>-280.7539556224804</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001904761904761905</v>
       </c>
       <c r="B5">
-        <v>-94.48564110840684</v>
+        <v>-98.62793687318975</v>
       </c>
       <c r="C5">
-        <v>397.8502122928678</v>
+        <v>406.5464437533672</v>
       </c>
       <c r="D5">
-        <v>-303.364571184461</v>
+        <v>-307.9185068801775</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0002380952380952381</v>
       </c>
       <c r="B6">
-        <v>-44.77997217289106</v>
+        <v>-47.55613416335331</v>
       </c>
       <c r="C6">
-        <v>385.2593183579357</v>
+        <v>383.2152250122263</v>
       </c>
       <c r="D6">
-        <v>-340.4793461850447</v>
+        <v>-335.6590908488729</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0002857142857142857</v>
       </c>
       <c r="B7">
-        <v>-22.58774530260645</v>
+        <v>-21.26479158643853</v>
       </c>
       <c r="C7">
-        <v>374.1264369811468</v>
+        <v>370.4198556286758</v>
       </c>
       <c r="D7">
-        <v>-351.5386916785403</v>
+        <v>-349.1550640422373</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0003333333333333334</v>
       </c>
       <c r="B8">
-        <v>-8.448413415608329</v>
+        <v>-5.889017650914639</v>
       </c>
       <c r="C8">
-        <v>368.7836511063098</v>
+        <v>373.5800384885299</v>
       </c>
       <c r="D8">
-        <v>-360.3352376907014</v>
+        <v>-367.6910208376153</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.000380952380952381</v>
       </c>
       <c r="B9">
-        <v>6.485267411127452</v>
+        <v>5.557469397752399</v>
       </c>
       <c r="C9">
-        <v>362.0178522888572</v>
+        <v>368.1129887834269</v>
       </c>
       <c r="D9">
-        <v>-368.5031196999847</v>
+        <v>-373.6704581811792</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0004285714285714287</v>
       </c>
       <c r="B10">
-        <v>22.93072221778499</v>
+        <v>21.17241600998207</v>
       </c>
       <c r="C10">
-        <v>348.8817851349784</v>
+        <v>350.4959804788841</v>
       </c>
       <c r="D10">
-        <v>-371.8125073527634</v>
+        <v>-371.6683964888662</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0004761904761904763</v>
       </c>
       <c r="B11">
-        <v>46.03542886160785</v>
+        <v>47.08334980542483</v>
       </c>
       <c r="C11">
-        <v>344.8003634500577</v>
+        <v>337.1586380369231</v>
       </c>
       <c r="D11">
-        <v>-390.8357923116656</v>
+        <v>-384.241987842348</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0005238095238095239</v>
       </c>
       <c r="B12">
-        <v>98.68719425855279</v>
+        <v>98.53417467776917</v>
       </c>
       <c r="C12">
-        <v>304.6621459682124</v>
+        <v>308.9577917392984</v>
       </c>
       <c r="D12">
-        <v>-403.3493402267652</v>
+        <v>-407.4919664170676</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0005714285714285716</v>
       </c>
       <c r="B13">
-        <v>163.5490465618347</v>
+        <v>160.9657767873641</v>
       </c>
       <c r="C13">
-        <v>278.0205119322534</v>
+        <v>281.1939361463268</v>
       </c>
       <c r="D13">
-        <v>-441.5695584940881</v>
+        <v>-442.159712933691</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0006190476190476192</v>
       </c>
       <c r="B14">
-        <v>213.2230467302644</v>
+        <v>209.7050910328694</v>
       </c>
       <c r="C14">
-        <v>262.8384216092655</v>
+        <v>260.5387142470559</v>
       </c>
       <c r="D14">
-        <v>-476.0614683395299</v>
+        <v>-470.2438052799253</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0006666666666666669</v>
       </c>
       <c r="B15">
-        <v>228.1448070339299</v>
+        <v>232.6683191082725</v>
       </c>
       <c r="C15">
-        <v>250.3251023393569</v>
+        <v>250.2562082291475</v>
       </c>
       <c r="D15">
-        <v>-478.4699093732868</v>
+        <v>-482.92452733742</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0007142857142857145</v>
       </c>
       <c r="B16">
-        <v>244.7160727536769</v>
+        <v>248.3137271826432</v>
       </c>
       <c r="C16">
-        <v>245.6870635489353</v>
+        <v>248.029253856133</v>
       </c>
       <c r="D16">
-        <v>-490.4031363026122</v>
+        <v>-496.3429810387762</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0007619047619047621</v>
       </c>
       <c r="B17">
-        <v>250.314936149674</v>
+        <v>250.3776841890895</v>
       </c>
       <c r="C17">
-        <v>229.9288175968786</v>
+        <v>232.9847113058937</v>
       </c>
       <c r="D17">
-        <v>-480.2437537465526</v>
+        <v>-483.3623954949833</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0008095238095238098</v>
       </c>
       <c r="B18">
-        <v>263.0033258802743</v>
+        <v>260.1288229928355</v>
       </c>
       <c r="C18">
-        <v>211.6412652192566</v>
+        <v>210.4331176511341</v>
       </c>
       <c r="D18">
-        <v>-474.6445910995308</v>
+        <v>-470.5619406439696</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0008571428571428574</v>
       </c>
       <c r="B19">
-        <v>282.7870758455022</v>
+        <v>281.1980071425147</v>
       </c>
       <c r="C19">
-        <v>167.7908479877405</v>
+        <v>162.8429574888392</v>
       </c>
       <c r="D19">
-        <v>-450.5779238332427</v>
+        <v>-444.0409646313539</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0009047619047619051</v>
       </c>
       <c r="B20">
-        <v>304.3629673488164</v>
+        <v>308.9273912361479</v>
       </c>
       <c r="C20">
-        <v>95.47819423598247</v>
+        <v>98.71581603149313</v>
       </c>
       <c r="D20">
-        <v>-399.8411615847989</v>
+        <v>-407.643207267641</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0009523809523809527</v>
       </c>
       <c r="B21">
-        <v>341.6974902180451</v>
+        <v>336.4019226664229</v>
       </c>
       <c r="C21">
-        <v>45.6372766838651</v>
+        <v>47.43909421376397</v>
       </c>
       <c r="D21">
-        <v>-387.3347669019103</v>
+        <v>-383.8410168801869</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.001</v>
       </c>
       <c r="B22">
-        <v>351.5878977437631</v>
+        <v>349.5654191301602</v>
       </c>
       <c r="C22">
-        <v>23.03357737271911</v>
+        <v>21.50237253254916</v>
       </c>
       <c r="D22">
-        <v>-374.6214751164822</v>
+        <v>-371.0677916627093</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.001047619047619048</v>
       </c>
       <c r="B23">
-        <v>361.0349621823102</v>
+        <v>367.8002387569755</v>
       </c>
       <c r="C23">
-        <v>7.696577140012337</v>
+        <v>5.948811022725096</v>
       </c>
       <c r="D23">
-        <v>-368.7315393223225</v>
+        <v>-373.7490497797006</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.001095238095238096</v>
       </c>
       <c r="B24">
-        <v>370.2349698209286</v>
+        <v>373.4258078190602</v>
       </c>
       <c r="C24">
-        <v>-7.429874856726215</v>
+        <v>-5.764518054870649</v>
       </c>
       <c r="D24">
-        <v>-362.8050949642024</v>
+        <v>-367.6612897641895</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.001142857142857143</v>
       </c>
       <c r="B25">
-        <v>372.6899192237776</v>
+        <v>372.1306404009904</v>
       </c>
       <c r="C25">
-        <v>-22.83942391570253</v>
+        <v>-21.49991152539306</v>
       </c>
       <c r="D25">
-        <v>-349.8504953080751</v>
+        <v>-350.6307288755973</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.001190476190476191</v>
       </c>
       <c r="B26">
-        <v>389.8269605605437</v>
+        <v>384.9238417030029</v>
       </c>
       <c r="C26">
-        <v>-44.9451885087967</v>
+        <v>-47.14110969482357</v>
       </c>
       <c r="D26">
-        <v>-344.8817720517471</v>
+        <v>-337.7827320081793</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.001238095238095238</v>
       </c>
       <c r="B27">
-        <v>401.6445560105106</v>
+        <v>408.419018049282</v>
       </c>
       <c r="C27">
-        <v>-97.12862242657576</v>
+        <v>-98.47753616768304</v>
       </c>
       <c r="D27">
-        <v>-304.5159335839348</v>
+        <v>-309.941481881599</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.001285714285714286</v>
       </c>
       <c r="B28">
-        <v>442.24787707118</v>
+        <v>443.6528022992091</v>
       </c>
       <c r="C28">
-        <v>-163.8333857865335</v>
+        <v>-161.4932784857516</v>
       </c>
       <c r="D28">
-        <v>-278.4144912846465</v>
+        <v>-282.1595238134575</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.001333333333333334</v>
       </c>
       <c r="B29">
-        <v>477.9845977547248</v>
+        <v>471.0253077547371</v>
       </c>
       <c r="C29">
-        <v>-214.0966905051393</v>
+        <v>-210.2455773551506</v>
       </c>
       <c r="D29">
-        <v>-263.8879072495855</v>
+        <v>-260.7797303995865</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.001380952380952381</v>
       </c>
       <c r="B30">
-        <v>480.113148486398</v>
+        <v>483.1722702314074</v>
       </c>
       <c r="C30">
-        <v>-228.8211557780318</v>
+        <v>-233.000569057599</v>
       </c>
       <c r="D30">
-        <v>-251.2919927083663</v>
+        <v>-250.1717011738084</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.001428571428571429</v>
       </c>
       <c r="B31">
-        <v>489.3728153662684</v>
+        <v>496.0017836490263</v>
       </c>
       <c r="C31">
-        <v>-244.6326516772025</v>
+        <v>-248.2175534613123</v>
       </c>
       <c r="D31">
-        <v>-244.7401636890659</v>
+        <v>-247.7842301877139</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.001476190476190477</v>
       </c>
       <c r="B32">
-        <v>477.2677369186245</v>
+        <v>482.9011243060675</v>
       </c>
       <c r="C32">
-        <v>-249.6253806285302</v>
+        <v>-250.3425717380152</v>
       </c>
       <c r="D32">
-        <v>-227.6423562900943</v>
+        <v>-232.5585525680523</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.001523809523809524</v>
       </c>
       <c r="B33">
-        <v>473.2985128050076</v>
+        <v>470.0962563051683</v>
       </c>
       <c r="C33">
-        <v>-262.5077247859868</v>
+        <v>-260.2258512419137</v>
       </c>
       <c r="D33">
-        <v>-210.7907880190208</v>
+        <v>-209.8704050632546</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.001571428571428572</v>
       </c>
       <c r="B34">
-        <v>450.9325115427336</v>
+        <v>443.5561751037436</v>
       </c>
       <c r="C34">
-        <v>-282.3728623709579</v>
+        <v>-281.0046920461621</v>
       </c>
       <c r="D34">
-        <v>-168.5596491717757</v>
+        <v>-162.5514830575815</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.00161904761904762</v>
       </c>
       <c r="B35">
-        <v>398.9283475542781</v>
+        <v>407.3994081811562</v>
       </c>
       <c r="C35">
-        <v>-303.2532671900585</v>
+        <v>-308.5601220475763</v>
       </c>
       <c r="D35">
-        <v>-95.67508036421965</v>
+        <v>-98.83928613357996</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B36">
-        <v>385.5745359903997</v>
+        <v>383.6436902444399</v>
       </c>
       <c r="C36">
-        <v>-340.6326025398652</v>
+        <v>-336.0263896000735</v>
       </c>
       <c r="D36">
-        <v>-44.94193345053453</v>
+        <v>-47.61730064436649</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.001714285714285715</v>
       </c>
       <c r="B37">
-        <v>374.1405568986266</v>
+        <v>371.1262398087609</v>
       </c>
       <c r="C37">
-        <v>-351.9094429639041</v>
+        <v>-349.7530910757271</v>
       </c>
       <c r="D37">
-        <v>-22.23111393472256</v>
+        <v>-21.37314873303387</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.001761904761904762</v>
       </c>
       <c r="B38">
-        <v>368.7222590281455</v>
+        <v>373.7403301064326</v>
       </c>
       <c r="C38">
-        <v>-360.7467106963484</v>
+        <v>-367.9380661629398</v>
       </c>
       <c r="D38">
-        <v>-7.975548331797128</v>
+        <v>-5.802263943492846</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.00180952380952381</v>
       </c>
       <c r="B39">
-        <v>362.869138528845</v>
+        <v>368.1931997500535</v>
       </c>
       <c r="C39">
-        <v>-369.5882291854889</v>
+        <v>-373.9367597299975</v>
       </c>
       <c r="D39">
-        <v>6.7190906566439</v>
+        <v>5.743559979944024</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.001857142857142858</v>
       </c>
       <c r="B40">
-        <v>349.5961113983547</v>
+        <v>350.0870524269821</v>
       </c>
       <c r="C40">
-        <v>-372.2472763390062</v>
+        <v>-371.3958492314252</v>
       </c>
       <c r="D40">
-        <v>22.65116494065148</v>
+        <v>21.30879680444313</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001904761904761905</v>
       </c>
       <c r="B41">
-        <v>345.9631814565127</v>
+        <v>337.2258397084826</v>
       </c>
       <c r="C41">
-        <v>-391.4949314379538</v>
+        <v>-384.3099210668977</v>
       </c>
       <c r="D41">
-        <v>45.53174998144117</v>
+        <v>47.08408135841502</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.001952380952380953</v>
       </c>
       <c r="B42">
-        <v>304.7084615255508</v>
+        <v>309.4260393673769</v>
       </c>
       <c r="C42">
-        <v>-403.1069209299145</v>
+        <v>-407.9710385500151</v>
       </c>
       <c r="D42">
-        <v>98.39845940436373</v>
+        <v>98.54499918263828</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.002</v>
       </c>
       <c r="B43">
-        <v>278.4992235956698</v>
+        <v>281.538389099106</v>
       </c>
       <c r="C43">
-        <v>-442.9280240408015</v>
+        <v>-442.8435971594967</v>
       </c>
       <c r="D43">
-        <v>164.4288004451317</v>
+        <v>161.3052080603906</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.002047619047619048</v>
       </c>
       <c r="B44">
-        <v>263.7495027934617</v>
+        <v>260.6423952063619</v>
       </c>
       <c r="C44">
-        <v>-477.7268671252207</v>
+        <v>-470.8114494921023</v>
       </c>
       <c r="D44">
-        <v>213.977364331759</v>
+        <v>210.1690542857404</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.002095238095238096</v>
       </c>
       <c r="B45">
-        <v>250.1235992918407</v>
+        <v>250.5329089535426</v>
       </c>
       <c r="C45">
-        <v>-477.5976603753882</v>
+        <v>-483.8955298931573</v>
       </c>
       <c r="D45">
-        <v>227.4740610835475</v>
+        <v>233.3626209396147</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.002142857142857143</v>
       </c>
       <c r="B46">
-        <v>246.4022790522371</v>
+        <v>248.5084798784421</v>
       </c>
       <c r="C46">
-        <v>-492.3951789393531</v>
+        <v>-497.5249701181338</v>
       </c>
       <c r="D46">
-        <v>245.9928998871159</v>
+        <v>249.0164902396917</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.002190476190476191</v>
       </c>
       <c r="B47">
-        <v>229.7112419102309</v>
+        <v>233.0491671835333</v>
       </c>
       <c r="C47">
-        <v>-481.5165625414285</v>
+        <v>-484.1858581960314</v>
       </c>
       <c r="D47">
-        <v>251.8053206311976</v>
+        <v>251.1366910124981</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.002238095238095239</v>
       </c>
       <c r="B48">
-        <v>210.72239131596</v>
+        <v>210.2468057956592</v>
       </c>
       <c r="C48">
-        <v>-473.7470004292176</v>
+        <v>-471.1233669115431</v>
       </c>
       <c r="D48">
-        <v>263.0246091132576</v>
+        <v>260.8765611158839</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.002285714285714286</v>
       </c>
       <c r="B49">
-        <v>167.5531175404209</v>
+        <v>162.1084971594333</v>
       </c>
       <c r="C49">
-        <v>-449.2284790833903</v>
+        <v>-442.8990115121713</v>
       </c>
       <c r="D49">
-        <v>281.6753615429694</v>
+        <v>280.7905143527381</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B50">
-        <v>94.39882527554809</v>
+        <v>98.54386921899376</v>
       </c>
       <c r="C50">
-        <v>-397.8116970319087</v>
+        <v>-406.5032620958611</v>
       </c>
       <c r="D50">
-        <v>303.4128717563606</v>
+        <v>307.9593928768674</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.002380952380952382</v>
       </c>
       <c r="B51">
-        <v>44.72636418368107</v>
+        <v>47.49911720551239</v>
       </c>
       <c r="C51">
-        <v>-385.2486435738625</v>
+        <v>-383.188867559254</v>
       </c>
       <c r="D51">
-        <v>340.5222793901814</v>
+        <v>335.6897503537416</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.002428571428571429</v>
       </c>
       <c r="B52">
-        <v>22.56955942762959</v>
+        <v>21.23913896766472</v>
       </c>
       <c r="C52">
-        <v>-374.1058639595203</v>
+        <v>-370.4148161221369</v>
       </c>
       <c r="D52">
-        <v>351.5363045318907</v>
+        <v>349.1756771544722</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.002476190476190477</v>
       </c>
       <c r="B53">
-        <v>8.428501577939457</v>
+        <v>5.871357822008051</v>
       </c>
       <c r="C53">
-        <v>-368.7892212942431</v>
+        <v>-373.5875269196537</v>
       </c>
       <c r="D53">
-        <v>360.3607197163036</v>
+        <v>367.7161690976456</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.002523809523809525</v>
       </c>
       <c r="B54">
-        <v>-6.508051360845784</v>
+        <v>-5.575865102455253</v>
       </c>
       <c r="C54">
-        <v>-361.9946819217847</v>
+        <v>-368.0875787522975</v>
       </c>
       <c r="D54">
-        <v>368.5027332826305</v>
+        <v>373.6634438547528</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.002571428571428572</v>
       </c>
       <c r="B55">
-        <v>-22.95908029689222</v>
+        <v>-21.19881623993838</v>
       </c>
       <c r="C55">
-        <v>-348.8666091231452</v>
+        <v>-350.4783452957072</v>
       </c>
       <c r="D55">
-        <v>371.8256894200374</v>
+        <v>371.6771615356456</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.00261904761904762</v>
       </c>
       <c r="B56">
-        <v>-46.08560512774021</v>
+        <v>-47.13902009079737</v>
       </c>
       <c r="C56">
-        <v>-344.7773663443018</v>
+        <v>-337.1253865713541</v>
       </c>
       <c r="D56">
-        <v>390.862971472042</v>
+        <v>384.2644066621515</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.002666666666666667</v>
       </c>
       <c r="B57">
-        <v>-98.77249281384897</v>
+        <v>-98.61912527686714</v>
       </c>
       <c r="C57">
-        <v>-304.601370112569</v>
+        <v>-308.9172709027887</v>
       </c>
       <c r="D57">
-        <v>403.373862926418</v>
+        <v>407.5363961796559</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.002714285714285715</v>
       </c>
       <c r="B58">
-        <v>-163.6455119773939</v>
+        <v>-161.057474231263</v>
       </c>
       <c r="C58">
-        <v>-277.9958114373483</v>
+        <v>-281.1567985612629</v>
       </c>
       <c r="D58">
-        <v>441.6413234147421</v>
+        <v>442.2142727925259</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.002761904761904763</v>
       </c>
       <c r="B59">
-        <v>-213.2605780537918</v>
+        <v>-209.7483273464841</v>
       </c>
       <c r="C59">
-        <v>-262.8176528855456</v>
+        <v>-260.5157651535764</v>
       </c>
       <c r="D59">
-        <v>476.0782309393373</v>
+        <v>470.2640925000604</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.00280952380952381</v>
       </c>
       <c r="B60">
-        <v>-228.1683706997815</v>
+        <v>-232.6997073102827</v>
       </c>
       <c r="C60">
-        <v>-250.3136859729127</v>
+        <v>-250.251148278761</v>
       </c>
       <c r="D60">
-        <v>478.4820566726942</v>
+        <v>482.9508555890436</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.002857142857142858</v>
       </c>
       <c r="B61">
-        <v>-244.7313841827844</v>
+        <v>-248.3230637367453</v>
       </c>
       <c r="C61">
-        <v>-245.6738059071509</v>
+        <v>-248.0203495913023</v>
       </c>
       <c r="D61">
-        <v>490.4051900899353</v>
+        <v>496.3434133280476</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.002904761904761906</v>
       </c>
       <c r="B62">
-        <v>-250.3236843459033</v>
+        <v>-250.3804744654484</v>
       </c>
       <c r="C62">
-        <v>-229.9037569704356</v>
+        <v>-232.9538374686128</v>
       </c>
       <c r="D62">
-        <v>480.227441316339</v>
+        <v>483.3343119340611</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.002952380952380953</v>
       </c>
       <c r="B63">
-        <v>-263.0347549996661</v>
+        <v>-260.1528293496847</v>
       </c>
       <c r="C63">
-        <v>-211.6146060686378</v>
+        <v>-210.3922109784429</v>
       </c>
       <c r="D63">
-        <v>474.6493610683039</v>
+        <v>470.5450403281276</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.003000000000000001</v>
       </c>
       <c r="B64">
-        <v>-282.810157826665</v>
+        <v>-281.2361803265489</v>
       </c>
       <c r="C64">
-        <v>-167.6811227793495</v>
+        <v>-162.749339984584</v>
       </c>
       <c r="D64">
-        <v>450.4912806060144</v>
+        <v>443.985520311133</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.003047619047619049</v>
       </c>
       <c r="B65">
-        <v>-304.4110494312209</v>
+        <v>-308.9675750972895</v>
       </c>
       <c r="C65">
-        <v>-95.39160999077728</v>
+        <v>-98.63052274227721</v>
       </c>
       <c r="D65">
-        <v>399.8026594219982</v>
+        <v>407.5980978395667</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.003095238095238096</v>
       </c>
       <c r="B66">
-        <v>-341.7415433198307</v>
+        <v>-336.4360251469432</v>
       </c>
       <c r="C66">
-        <v>-45.58457486912984</v>
+        <v>-47.38327549596495</v>
       </c>
       <c r="D66">
-        <v>387.3261181889605</v>
+        <v>383.8193006429081</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.003142857142857144</v>
       </c>
       <c r="B67">
-        <v>-351.5861919419596</v>
+        <v>-349.5800558192796</v>
       </c>
       <c r="C67">
-        <v>-23.0133017320039</v>
+        <v>-21.47613573789725</v>
       </c>
       <c r="D67">
-        <v>374.5994936739635</v>
+        <v>371.0561915571769</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.003190476190476191</v>
       </c>
       <c r="B68">
-        <v>-361.0590959337541</v>
+        <v>-367.8259220637386</v>
       </c>
       <c r="C68">
-        <v>-7.675960879472569</v>
+        <v>-5.931037063869098</v>
       </c>
       <c r="D68">
-        <v>368.7350568132266</v>
+        <v>373.7569591276077</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.003238095238095239</v>
       </c>
       <c r="B69">
-        <v>-370.2346078242243</v>
+        <v>-373.4192429475208</v>
       </c>
       <c r="C69">
-        <v>7.452284047660413</v>
+        <v>5.783486393242598</v>
       </c>
       <c r="D69">
-        <v>362.7823237765639</v>
+        <v>367.6357565542783</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.003285714285714287</v>
       </c>
       <c r="B70">
-        <v>-372.7012342809512</v>
+        <v>-372.14139261068</v>
       </c>
       <c r="C70">
-        <v>22.86573875145277</v>
+        <v>21.52610488191604</v>
       </c>
       <c r="D70">
-        <v>349.8354955294984</v>
+        <v>350.615287728764</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.003333333333333334</v>
       </c>
       <c r="B71">
-        <v>-389.8537953268594</v>
+        <v>-384.9480919490223</v>
       </c>
       <c r="C71">
-        <v>44.99425387279612</v>
+        <v>47.19656966654719</v>
       </c>
       <c r="D71">
-        <v>344.8595414540633</v>
+        <v>337.7515222824752</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.003380952380952382</v>
       </c>
       <c r="B72">
-        <v>-401.6668395442064</v>
+        <v>-408.4626501729515</v>
       </c>
       <c r="C72">
-        <v>97.21436886456866</v>
+        <v>98.56251784061888</v>
       </c>
       <c r="D72">
-        <v>304.4524706796377</v>
+        <v>309.9001323323326</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.00342857142857143</v>
       </c>
       <c r="B73">
-        <v>-442.3242790931014</v>
+        <v>-443.7079007495933</v>
       </c>
       <c r="C73">
-        <v>163.9325927862628</v>
+        <v>161.5861377864711</v>
       </c>
       <c r="D73">
-        <v>278.3916863068386</v>
+        <v>282.1217629631221</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.003476190476190477</v>
       </c>
       <c r="B74">
-        <v>-478.001559699356</v>
+        <v>-471.0446531276323</v>
       </c>
       <c r="C74">
-        <v>214.1340986346263</v>
+        <v>210.2884158633339</v>
       </c>
       <c r="D74">
-        <v>263.8674610647297</v>
+        <v>260.7562372642983</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.003523809523809525</v>
       </c>
       <c r="B75">
-        <v>-480.1220612365647</v>
+        <v>-483.1953787826982</v>
       </c>
       <c r="C75">
-        <v>228.8433913639134</v>
+        <v>233.0302261790481</v>
       </c>
       <c r="D75">
-        <v>251.2786698726513</v>
+        <v>250.1651526036501</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.003571428571428573</v>
       </c>
       <c r="B76">
-        <v>-489.3737095048691</v>
+        <v>-496.0034692542457</v>
       </c>
       <c r="C76">
-        <v>244.6481061618777</v>
+        <v>248.2278089087735</v>
       </c>
       <c r="D76">
-        <v>244.7256033429914</v>
+        <v>247.7756603454722</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.00361904761904762</v>
       </c>
       <c r="B77">
-        <v>-477.2500869121496</v>
+        <v>-482.8759435298397</v>
       </c>
       <c r="C77">
-        <v>249.6338087412822</v>
+        <v>250.347683474529</v>
       </c>
       <c r="D77">
-        <v>227.6162781708674</v>
+        <v>232.5282600553107</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.003666666666666668</v>
       </c>
       <c r="B78">
-        <v>-473.3027444445856</v>
+        <v>-470.0781031144106</v>
       </c>
       <c r="C78">
-        <v>262.5364097572604</v>
+        <v>260.2487286112354</v>
       </c>
       <c r="D78">
-        <v>210.7663346873253</v>
+        <v>209.8293745031752</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.003714285714285716</v>
       </c>
       <c r="B79">
-        <v>-450.8511080830497</v>
+        <v>-443.4993818222986</v>
       </c>
       <c r="C79">
-        <v>282.3982606842626</v>
+        <v>281.0413171796416</v>
       </c>
       <c r="D79">
-        <v>168.4528473987871</v>
+        <v>162.458064642657</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.003761904761904763</v>
       </c>
       <c r="B80">
-        <v>-398.886117346111</v>
+        <v>-407.3525611108603</v>
       </c>
       <c r="C80">
-        <v>303.3003564657247</v>
+        <v>308.5983210771217</v>
       </c>
       <c r="D80">
-        <v>95.58576088038626</v>
+        <v>98.7542400337385</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.003809523809523811</v>
       </c>
       <c r="B81">
-        <v>-385.567629624199</v>
+        <v>-383.6213254532171</v>
       </c>
       <c r="C81">
-        <v>340.6793692880908</v>
+        <v>336.0606148927308</v>
       </c>
       <c r="D81">
-        <v>44.88826033610816</v>
+        <v>47.56071056048624</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.003857142857142858</v>
       </c>
       <c r="B82">
-        <v>-374.117151511879</v>
+        <v>-371.1179318394535</v>
       </c>
       <c r="C82">
-        <v>351.9055889239446</v>
+        <v>349.7711304323345</v>
       </c>
       <c r="D82">
-        <v>22.21156258793441</v>
+        <v>21.34680140711906</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.003904761904761906</v>
       </c>
       <c r="B83">
-        <v>-368.7281481209421</v>
+        <v>-373.7492694980133</v>
       </c>
       <c r="C83">
-        <v>360.7716622416279</v>
+        <v>367.9647822704611</v>
       </c>
       <c r="D83">
-        <v>7.956485879314229</v>
+        <v>5.784487227552191</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.003952380952380954</v>
       </c>
       <c r="B84">
-        <v>-362.8455146129708</v>
+        <v>-368.1651998692533</v>
       </c>
       <c r="C84">
-        <v>369.5868476059023</v>
+        <v>373.9272393823548</v>
       </c>
       <c r="D84">
-        <v>-6.741332992931532</v>
+        <v>-5.76203951310147</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.004000000000000001</v>
       </c>
       <c r="B85">
-        <v>-349.5821743680719</v>
+        <v>-350.0688701635587</v>
       </c>
       <c r="C85">
-        <v>372.2609752073233</v>
+        <v>371.4034437397318</v>
       </c>
       <c r="D85">
-        <v>-22.67880083925139</v>
+        <v>-21.33457357617309</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.004047619047619048</v>
       </c>
       <c r="B86">
-        <v>-345.9404511602831</v>
+        <v>-337.1959278907591</v>
       </c>
       <c r="C86">
-        <v>391.5219465983268</v>
+        <v>384.3356030916947</v>
       </c>
       <c r="D86">
-        <v>-45.58149543804373</v>
+        <v>-47.13967520093559</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.004095238095238095</v>
       </c>
       <c r="B87">
-        <v>-304.6467720365231</v>
+        <v>-309.3850397314043</v>
       </c>
       <c r="C87">
-        <v>403.1325792226669</v>
+        <v>408.0159961626019</v>
       </c>
       <c r="D87">
-        <v>-98.48580718614373</v>
+        <v>-98.6309564311976</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.004142857142857143</v>
       </c>
       <c r="B88">
-        <v>-278.4751809058776</v>
+        <v>-281.501597099625</v>
       </c>
       <c r="C88">
-        <v>443.0015073541183</v>
+        <v>442.898912083331</v>
       </c>
       <c r="D88">
-        <v>-164.5263264482407</v>
+        <v>-161.3973149837059</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.00419047619047619</v>
       </c>
       <c r="B89">
-        <v>-263.7272539225115</v>
+        <v>-260.6180366415727</v>
       </c>
       <c r="C89">
-        <v>477.739656872996</v>
+        <v>470.8291852340318</v>
       </c>
       <c r="D89">
-        <v>-214.0124029504845</v>
+        <v>-210.2111485924591</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.004238095238095237</v>
       </c>
       <c r="B90">
-        <v>-250.1127999545031</v>
+        <v>-250.5290403549374</v>
       </c>
       <c r="C90">
-        <v>477.6112444854462</v>
+        <v>483.9234035656792</v>
       </c>
       <c r="D90">
-        <v>-227.4984445309431</v>
+        <v>-233.3943632107418</v>
       </c>
     </row>
   </sheetData>
